--- a/biology/Botanique/Xanthophyllaceae/Xanthophyllaceae.xlsx
+++ b/biology/Botanique/Xanthophyllaceae/Xanthophyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Xanthophyllaceae sont une famille de plantes dicotylédones.
 Ce sont des petits arbres originaires de la zone paléo-tropicale indo-malaise.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Xanthophyllum, dérivé du grec ξανθός  / xanthós,« jaune ; jaunâtre ; verdâtre », et φύλλον / phyllon, feuille[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Xanthophyllum, dérivé du grec ξανθός  / xanthós,« jaune ; jaunâtre ; verdâtre », et φύλλον / phyllon, feuille.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille ne comprend qu'un seul genre, Xanthophyllum. 
-Cette famille n'est pas acceptée par la plupart des taxonomistes, ni en classification phylogénétique APG (1998)[3] ni en classification phylogénétique APG II (2003)[4], ni en  classification phylogénétique APG III (2009)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille ne comprend qu'un seul genre, Xanthophyllum. 
+Cette famille n'est pas acceptée par la plupart des taxonomistes, ni en classification phylogénétique APG (1998) ni en classification phylogénétique APG II (2003), ni en  classification phylogénétique APG III (2009).
 Le genre Xanthophyllum est communément inclus dans les Polygalaceae.
 </t>
         </is>
